--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Sockets-POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1A4ECC-23F8-43C0-AA33-4F7474C4D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9B5AF4-70FE-4735-8F1B-382E8BDF69A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7728" yWindow="4500" windowWidth="22992" windowHeight="12780" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socket.IO-Frontend" sheetId="6" r:id="rId1"/>
@@ -24,25 +24,38 @@
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">'SignalR-Frontend'!$A$1:$B$67</definedName>
     <definedName name="ExternalData_4" localSheetId="0" hidden="1">'Socket.IO-Frontend'!$A$1:$B$52</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - frontenddata" description="Verbinding maken met de query frontenddata in de werkmap." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - frontenddata" description="Verbinding maken met de query frontenddata in de werkmap." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=frontenddata;Extended Properties=&quot;&quot;" command="SELECT * FROM [frontenddata]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - frontenddata2" description="Verbinding maken met de query frontenddata2 in de werkmap." type="5" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - frontenddata2" description="Verbinding maken met de query frontenddata2 in de werkmap." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=frontenddata2;Extended Properties=&quot;&quot;" command="SELECT * FROM [frontenddata2]"/>
   </connection>
-  <connection id="3" keepAlive="1" name="Query - frontenddata2 (2)" description="Verbinding maken met de query frontenddata2 (2) in de werkmap." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Query - frontenddata2 (2)" description="Verbinding maken met de query frontenddata2 (2) in de werkmap." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;frontenddata2 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [frontenddata2 (2)]"/>
   </connection>
-  <connection id="4" keepAlive="1" name="Query - test" description="Verbinding maken met de query test in de werkmap." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Query - test" description="Verbinding maken met de query test in de werkmap." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=test;Extended Properties=&quot;&quot;" command="SELECT * FROM [test]"/>
   </connection>
-  <connection id="5" keepAlive="1" name="Query - test2" description="Verbinding maken met de query test2 in de werkmap." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="Query - test2" description="Verbinding maken met de query test2 in de werkmap." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=test2;Extended Properties=&quot;&quot;" command="SELECT * FROM [test2]"/>
   </connection>
 </connections>
@@ -249,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,9 +740,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -807,8 +819,4441 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Socket.IO Client to Client</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Socket.IO-Frontend'!$C$2:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CE6-424E-82F1-67656D3AA763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1704971600"/>
+        <c:axId val="1704975440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1704971600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1704975440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1704975440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704971600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SignalR Client to Client</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SignalR-Frontend'!$C$2:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF09-4C40-8583-14ABF87E8648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1704969680"/>
+        <c:axId val="1704983120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1704969680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1704983120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1704983120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704969680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Socket.IO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Client to Server</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Socket.IO-Backend'!$C$2:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB3E-441A-98C4-672CA3D88C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1704978320"/>
+        <c:axId val="1704970160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1704978320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1704970160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1704970160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency in (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704978320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SignalR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Client to Server</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SignalR-Backend'!$D$2:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5630-4603-85F7-33E1F56E2912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1704994160"/>
+        <c:axId val="1704979760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1704994160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1704979760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1704979760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704994160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46A6A4A-0B71-B457-D9C6-57E7F53A80B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6716D0A5-5ED6-C1AC-8498-EBC7DB270E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C854F525-CA1D-4C6E-904F-013AEC793EAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9648B12-0C2D-7903-9D06-62399D661F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_4" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4" unboundColumnsRight="1">
     <queryTableFields count="3">
       <queryTableField id="1" name="Sent" tableColumnId="1"/>
@@ -820,7 +5265,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4" unboundColumnsRight="1">
     <queryTableFields count="3">
       <queryTableField id="1" name="Sent" tableColumnId="1"/>
@@ -832,7 +5277,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="5" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4" unboundColumnsRight="1">
     <queryTableFields count="3">
       <queryTableField id="1" name="Sent" tableColumnId="1"/>
@@ -844,7 +5289,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5" unboundColumnsRight="1">
     <queryTableFields count="4">
       <queryTableField id="1" name="Id" tableColumnId="1"/>
@@ -857,16 +5302,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="frontenddata2__2" displayName="frontenddata2__2" ref="A1:C53" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:C52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="frontenddata2__2" displayName="frontenddata2__2" ref="A1:C53" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:C52" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="Sent" totalsRowFunction="custom" queryTableFieldId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Sent" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>AVERAGE(frontenddata2__2[Sent])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" uniqueName="2" name="ClientReceived" totalsRowFunction="custom" queryTableFieldId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="ClientReceived" totalsRowFunction="custom" queryTableFieldId="2">
       <totalsRowFormula>AVERAGE(frontenddata2__2[ClientReceived])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="Kolom1" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Kolom1" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="5">
       <calculatedColumnFormula>frontenddata2__2[[#This Row],[ClientReceived]]-frontenddata2__2[[#This Row],[Sent]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(frontenddata2__2[Kolom1])</totalsRowFormula>
     </tableColumn>
@@ -876,16 +5321,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="frontenddata" displayName="frontenddata" ref="A1:C68" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:C67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="frontenddata" displayName="frontenddata" ref="A1:C68" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:C67" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="Sent" totalsRowFunction="custom" queryTableFieldId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Sent" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>AVERAGE(frontenddata[Sent])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" uniqueName="2" name="ClientReceived" totalsRowFunction="custom" queryTableFieldId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="ClientReceived" totalsRowFunction="custom" queryTableFieldId="2">
       <totalsRowFormula>AVERAGE(frontenddata[ClientReceived])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="Kolom1" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Kolom1" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="4">
       <calculatedColumnFormula>frontenddata[[#This Row],[ClientReceived]]-frontenddata[[#This Row],[Sent]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(frontenddata[Kolom1])</totalsRowFormula>
     </tableColumn>
@@ -895,16 +5340,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="test2" displayName="test2" ref="A1:C73" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:C72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="test2" displayName="test2" ref="A1:C73" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:C72" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="Sent" totalsRowFunction="custom" queryTableFieldId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="Sent" totalsRowFunction="custom" queryTableFieldId="1">
       <totalsRowFormula>AVERAGE(test2[Sent])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" uniqueName="2" name="ServerRecieved" totalsRowFunction="custom" queryTableFieldId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="ServerRecieved" totalsRowFunction="custom" queryTableFieldId="2">
       <totalsRowFormula>AVERAGE(test2[ServerRecieved])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="Kolom1" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="Kolom1" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="3">
       <calculatedColumnFormula>test2[[#This Row],[ServerRecieved]]-test2[[#This Row],[Sent]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(test2[Kolom1])</totalsRowFormula>
     </tableColumn>
@@ -914,17 +5359,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="test" displayName="test" ref="A1:D62" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:D61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="test" displayName="test" ref="A1:D62" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:D61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="Id" queryTableFieldId="1" dataDxfId="5" totalsRowDxfId="3"/>
-    <tableColumn id="2" uniqueName="2" name="Sent" totalsRowFunction="custom" queryTableFieldId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="Id" queryTableFieldId="1" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="Sent" totalsRowFunction="custom" queryTableFieldId="2">
       <totalsRowFormula>AVERAGE(test[Sent])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="ServerRecieved" totalsRowFunction="custom" queryTableFieldId="3">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="ServerRecieved" totalsRowFunction="custom" queryTableFieldId="3">
       <totalsRowFormula>AVERAGE(test[ServerRecieved])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" uniqueName="4" name="Kolom1" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" uniqueName="4" name="Kolom1" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="0">
       <calculatedColumnFormula>test[[#This Row],[ServerRecieved]]-test[[#This Row],[Sent]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(test[Kolom1])</totalsRowFormula>
     </tableColumn>
@@ -1229,11 +5674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1881,18 +6326,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2720,18 +7166,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3619,18 +8066,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3655,7 +8103,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -3670,7 +8118,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -3685,7 +8133,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -3700,7 +8148,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -3715,7 +8163,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -3730,7 +8178,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -3745,7 +8193,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -3760,7 +8208,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -3775,7 +8223,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
@@ -3790,7 +8238,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -3805,7 +8253,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
@@ -3820,7 +8268,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
@@ -3835,7 +8283,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
@@ -3850,7 +8298,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
@@ -3865,7 +8313,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
@@ -3880,7 +8328,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
@@ -3895,7 +8343,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
@@ -3910,7 +8358,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
@@ -3925,7 +8373,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
@@ -3940,7 +8388,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
@@ -3955,7 +8403,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
@@ -3970,7 +8418,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
@@ -3985,7 +8433,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
@@ -4000,7 +8448,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
@@ -4015,7 +8463,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
@@ -4030,7 +8478,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
@@ -4045,7 +8493,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
@@ -4060,7 +8508,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
@@ -4075,7 +8523,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
@@ -4090,7 +8538,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
@@ -4105,7 +8553,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
@@ -4120,7 +8568,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
@@ -4135,7 +8583,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
@@ -4150,7 +8598,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
@@ -4165,7 +8613,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
@@ -4180,7 +8628,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
@@ -4195,7 +8643,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
@@ -4210,7 +8658,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
@@ -4225,7 +8673,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
@@ -4240,7 +8688,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
@@ -4255,7 +8703,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
@@ -4270,7 +8718,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
@@ -4285,7 +8733,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
@@ -4300,7 +8748,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
@@ -4315,7 +8763,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
@@ -4330,7 +8778,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
@@ -4345,7 +8793,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
@@ -4360,7 +8808,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
@@ -4375,7 +8823,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
@@ -4390,7 +8838,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
@@ -4405,7 +8853,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
@@ -4420,7 +8868,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
@@ -4435,7 +8883,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
@@ -4450,7 +8898,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
@@ -4465,7 +8913,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
@@ -4480,7 +8928,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
@@ -4495,7 +8943,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
@@ -4510,7 +8958,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59">
@@ -4525,7 +8973,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
@@ -4540,7 +8988,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
@@ -4555,7 +9003,6 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
       <c r="B62">
         <f>AVERAGE(test[Sent])</f>
         <v>1681223822719.2666</v>
@@ -4571,8 +9018,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
